--- a/R Scripts/Dataset/CRQ3_3.xlsx
+++ b/R Scripts/Dataset/CRQ3_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusm\OneDrive\Documentos\uff\dissertacao\git\feature-toggles\R Scripts\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="113_{F3FE7B6F-EAA0-4856-8BB0-4437739CF3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B6051F7F-B64A-4C70-9B7D-F233B3DC7158}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="113_{F3FE7B6F-EAA0-4856-8BB0-4437739CF3D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BB8B8757-4FD1-43D9-8F55-28304D4128B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C33DFF4C-EAFE-4080-8AB1-D1C414069469}"/>
   </bookViews>
@@ -35,17 +35,17 @@
     <t>id</t>
   </si>
   <si>
-    <t>TEMPO_TOTAL_POR_K_LOC_EM_100_COMMITS_S_FW</t>
+    <t>TOTAL_TIME_PER_KLOC_IN_100_COMMITS_WO_FT</t>
   </si>
   <si>
-    <t>TEMPO_TOTAL_POR_K_LOC_EM_100_COMMITS_C_FW</t>
+    <t>TOTAL_TIME_PER_KLOC_IN_100_COMMITS_WITH_FT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +55,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,14 +100,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,13 +451,14 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="50.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,880 +468,881 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>347655</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>8.8804824006953206E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0.14289448999711485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>489645</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.40763539143230981</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>806511</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3.2342027882020626E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2.9753158592129449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1059929</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>9.4236180636864706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1338040</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4.5751753992274882</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2.1703420362868648</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1352520</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>4.0246958797551767E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.55893527019506106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1722606</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>21.165125009617473</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>5.192448778774116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>1799884</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>7.95734518984366</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>3.2633127268445641</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1848736</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>42.753290773935035</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>10.193282583559398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>2263742</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.50445145933343727</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.97840278476597309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>2386842</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>1.2216969785869948E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>2416064</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3.4153878739350857E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0.32660359541200978</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>2577146</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>144.14229469254286</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>14.359023901062912</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>2723436</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>3.0453312330688402</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>7.6695318041989236</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>2995765</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>8.0188597567333555E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>4693087</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.70444849625804495</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>5.3835665874565617</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>5144181</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>6.2546219689922546</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>0.22970048470336127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>5197539</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.26056627935968379</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>0.26429011446342426</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>5203368</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
         <v>8.1442259157593844E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>5541660</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1.1660381728184741</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>21.708821080013848</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>6127047</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>70.985187723921797</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>44.119105922402589</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>6388572</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>48.751720070768634</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>26.246194063692037</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>8484604</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>4.2493401836362264E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>3.4585642440256192E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>8884773</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.37568059497825129</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>0.2600485029570252</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>10199599</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>1.6837782633386347</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>2.8258559286041565</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>10391073</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
         <v>1571.9547247895255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>10934610</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>26.13070557391778</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>14.541028488031447</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>11246402</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>1.6958990047149454</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>7.8478876502810415</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>11671912</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>2.0330451589745286</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>3.5032194961845815</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>13633443</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>2.7146790997291341</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>132.89455793644962</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>15344614</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>16416867</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
         <v>0.91840744982385025</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>16619668</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
         <v>0.17077944136736628</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>16827151</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0.16229360606731344</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>1.3667645775569575</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>17164513</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>11.204082089160408</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>19695722</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>0.64725483531310879</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>1.8209146938338476</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>20538228</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>4.1944663663568561E-2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>0.46035548834492984</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>23722245</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>58.379452640876657</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>7.1306891311897061E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>24676571</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>1.3392221983106973</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>2.7310528848053517</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>24850244</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>24998407</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>15.06455978901988</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>3.0481478922220355</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>25745061</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>3.5135488121892346</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>2.263180367758594</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>26767408</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>19.835131207513729</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>12.860019428285895</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>27963475</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>0.22266837573562429</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>1.984511806822759</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>28054380</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>1.0191103283573507E-2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>0.41135773023429728</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>29340261</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>1.855719219840033</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>0.16997337772574833</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>30175039</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>0.59265310737141941</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>1.5903023911989818</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>34396268</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>7.8778616332382745</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>4.1949499514504467</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>35300278</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>1.8879509329760999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>1.4180663920793009</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>41607639</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>0.17218770132124542</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>6.5886820870957466E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>42585709</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
         <v>0.22830797942780723</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>45260412</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>2.0447505387582465</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>59.019420879865336</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>45866355</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>3.8222421419063712</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <v>0.7807812999440652</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>47632133</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
         <v>0.11312040266212843</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>49892996</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>0.30677504217892371</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>50365703</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>6.5151203566958218</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>0.56901539175209748</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>50667950</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>1.7306323353856856</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>2.4441843683604767</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>53135203</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>25.465159105213644</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>39.764017154794104</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>54648215</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>0.17419965875462931</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <v>0.22838231022419789</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>71376869</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
         <v>3.0317072512973327</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>71501855</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
         <v>7.8027210566671839</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>72479761</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
         <v>0.77430966016991687</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>74074978</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
         <v>5.1791759663446782E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>79148749</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
         <v>2.8827476414055067</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>79465598</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>3.1493447124859193E-2</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <v>8.6367701157165966E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>86282367</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>0.10194493458921726</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>0.19104468487418033</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>93316749</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4">
         <v>0.88669566634015151</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>93964532</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4">
         <v>0.49248010243586132</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>95443579</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4">
         <v>5.1161063851130255E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>96530667</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>8.1981123663455273E-3</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <v>4.9237223438664636E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>101262862</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
         <v>2.6396325263272559E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>101472507</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
         <v>2.6013581455844071E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>105359284</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
         <v>2.1170850627550802E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>107367707</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
         <v>2.2083568540889843E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>107553659</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
         <v>1.9150944964769497E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>111772276</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
         <v>1.4137853714573295E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>117831469</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
         <v>2.4382680650757851</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>118666777</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>122976077</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
         <v>7.0159533881507904E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>